--- a/biology/Zoologie/Conus_rolani/Conus_rolani.xlsx
+++ b/biology/Zoologie/Conus_rolani/Conus_rolani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus rolani est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 37 mm et 70 mm.
 La conantokine-R1-A est une toxine dérivée du venin de Conus rolani.
@@ -545,13 +559,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente au large de Taiwan et de Papouasie-Nouvelle-Guinée.
 			Conus rolani Röckel, D., 1986
 			Conus rolani Röckel, D., 1986
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est présente à Taiwan et aux Philippines, en Papouasie-Nouvelle-Guinée et à Makassar dans le Sulawesi, en Indonésie. Cette espèce est très commune dans les zones d'eau profonde aux Philippines. Il s'agit d'une espèce très répandue et les indicateurs de marché suggèrent qu'elle est commune. Il n'y a actuellement aucune menace majeure connue pour cette espèce. Cette espèce est classée dans la catégorie " préoccupation mineure "[1].
 </t>
         </is>
       </c>
@@ -577,15 +591,92 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est présente à Taiwan et aux Philippines, en Papouasie-Nouvelle-Guinée et à Makassar dans le Sulawesi, en Indonésie. Cette espèce est très commune dans les zones d'eau profonde aux Philippines. Il s'agit d'une espèce très répandue et les indicateurs de marché suggèrent qu'elle est commune. Il n'y a actuellement aucune menace majeure connue pour cette espèce. Cette espèce est classée dans la catégorie " préoccupation mineure ".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_rolani</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_rolani</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus rolani a été décrite pour la première fois en 1986 par le malacologiste allemand Dieter Röckel (d) dans « Spixiana »[2],[3].
-Synonymes
-Asprella rolani (Röckel, 1986) · non accepté
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus rolani a été décrite pour la première fois en 1986 par le malacologiste allemand Dieter Röckel (d) dans « Spixiana »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_rolani</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_rolani</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Asprella rolani (Röckel, 1986) · non accepté
 Conus (Asprella) rolani Röckel, 1986 · appellation alternative
 Phasmoconus rolani (Röckel, 1986) · non accepté</t>
         </is>
